--- a/biology/Botanique/Pelure_(fruit)/Pelure_(fruit).xlsx
+++ b/biology/Botanique/Pelure_(fruit)/Pelure_(fruit).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pelure, également connue sous le nom d'écorce ou de peau, est la couche protectrice extérieure d'un fruit ou d'un légume. En termes botaniques, la pelure correspond généralement au péricarpe.
-Les agrumes, aussi appelés hespérides, possèdent une anatomie particulière. Le péricarpe et le mésocarpe sont fusionnés pour former l'écorce. La partie externe de la pelure (également appelée le flavédo[1]) est de couleur orange, c'est le péricarpe. La partie interne (également appelée albédo) est blanche, c'est le mésocarpe. L'endocarpe enveloppe chaque segment de l'agrume.
+Les agrumes, aussi appelés hespérides, possèdent une anatomie particulière. Le péricarpe et le mésocarpe sont fusionnés pour former l'écorce. La partie externe de la pelure (également appelée le flavédo) est de couleur orange, c'est le péricarpe. La partie interne (également appelée albédo) est blanche, c'est le mésocarpe. L'endocarpe enveloppe chaque segment de l'agrume.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'épaisseur et le goût, la peau du fruit est parfois consommée, comme c'est le cas des pommes. Dans certains cas, la peau est désagréable ou non comestible, auquel cas elle est enlevée, comme c'est le cas des bananes et des pamplemousses.
 La peau de certains fruits — par exemple, la grenade — est riche en tanins et autres polyphénols et est employée dans la production de colorants.
@@ -545,9 +559,11 @@
           <t>Allergie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les allergies aux fruits comptent pour 10 % des allergies liées à la nourriture[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les allergies aux fruits comptent pour 10 % des allergies liées à la nourriture,.
 </t>
         </is>
       </c>
